--- a/docs/MeshSr_OFTest.xlsx
+++ b/docs/MeshSr_OFTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack\Desktop\MeshSr\Code\MeshSr_OFTest\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\MeshSr\MeshSr_OFTest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Class Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TestCase 40.70</t>
+  </si>
+  <si>
+    <t>TestCase 40.80</t>
+  </si>
+  <si>
+    <t>TestCase 40.90</t>
+  </si>
+  <si>
+    <t>TestCase 40.100</t>
+  </si>
+  <si>
     <r>
       <t>switch</t>
     </r>
@@ -226,8 +238,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>是否支持动态添加端口</t>
+      <t>是否支持动态添加端口，tester暂时无法动态测试</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_mod.NeverValidOutputPort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -668,6 +684,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
@@ -676,6 +695,9 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
@@ -684,6 +706,9 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -692,6 +717,9 @@
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
@@ -700,6 +728,9 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -708,6 +739,9 @@
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
@@ -716,6 +750,9 @@
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
@@ -732,6 +769,9 @@
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
@@ -740,6 +780,9 @@
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
@@ -748,6 +791,9 @@
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
@@ -756,6 +802,9 @@
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
@@ -764,6 +813,9 @@
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
@@ -780,6 +832,9 @@
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
@@ -788,6 +843,9 @@
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
@@ -812,13 +870,36 @@
       <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/docs/MeshSr_OFTest.xlsx
+++ b/docs/MeshSr_OFTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\MeshSr\MeshSr_OFTest\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack\Desktop\MeshSr\MeshSr_OFTest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>Class Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,12 +246,97 @@
     <t>flow_mod.NeverValidOutputPort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>flow_mod.ModifyNonExistentFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议有变化，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>mofify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不再相当于add</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST SUITE 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST SUITE 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST SUITE 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_mod.ModifyAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch45开第一次运行正确，在45上多次增删后，会出现OFPFMFC_TABLE_FULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 40.110</t>
+  </si>
+  <si>
+    <t>TestCase 40.120</t>
+  </si>
+  <si>
+    <t>TestCase 40.130</t>
+  </si>
+  <si>
+    <t>TestCase 40.140</t>
+  </si>
+  <si>
+    <t>TestCase 40.150</t>
+  </si>
+  <si>
+    <t>flow_mod.ModifyStrictAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_mod.DeleteFlowWithFlag</t>
+  </si>
+  <si>
+    <t>flow_mod.DeleteNonexistentFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +371,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -338,9 +430,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -349,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,15 +722,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="28.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="36.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
@@ -662,12 +754,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -678,7 +770,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -689,7 +781,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -700,206 +792,293 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
         <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/docs/MeshSr_OFTest.xlsx
+++ b/docs/MeshSr_OFTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Class Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,35 @@
   </si>
   <si>
     <t>flow_mod.DeleteNonexistentFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_mod.DeleteWithoutWildcards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议中，不能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>with all fields set</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +409,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,13 +428,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightDown"/>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -414,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +482,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1066,17 +1110,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>64</v>
       </c>

--- a/docs/MeshSr_OFTest.xlsx
+++ b/docs/MeshSr_OFTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>Class Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,7 +358,31 @@
       </rPr>
       <t>with all fields set</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，所以仅测试了单级流表所具有的field</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_mod.DeleteWithWildcardsSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_mod.StrictDeleteWithWildcardsSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 40.160</t>
+  </si>
+  <si>
+    <t>TestCase 40.170</t>
   </si>
 </sst>
 </file>
@@ -766,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1123,6 +1147,9 @@
       <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
@@ -1130,6 +1157,28 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>64</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/docs/MeshSr_OFTest.xlsx
+++ b/docs/MeshSr_OFTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
   <si>
     <t>Class Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,156 @@
   </si>
   <si>
     <t>TestCase 40.170</t>
+  </si>
+  <si>
+    <t>TestCase 50.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 50.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 50.30</t>
+  </si>
+  <si>
+    <t>TestCase 50.40</t>
+  </si>
+  <si>
+    <t>TestCase 50.50</t>
+  </si>
+  <si>
+    <t>TestCase 50.60</t>
+  </si>
+  <si>
+    <t>TestCase 50.70</t>
+  </si>
+  <si>
+    <t>TestCase 50.80</t>
+  </si>
+  <si>
+    <t>TestCase 50.90</t>
+  </si>
+  <si>
+    <t>TestCase 50.100</t>
+  </si>
+  <si>
+    <t>TestCase 50.110</t>
+  </si>
+  <si>
+    <t>TestCase 50.120</t>
+  </si>
+  <si>
+    <t>TestCase 50.130</t>
+  </si>
+  <si>
+    <t>TestCase 50.140</t>
+  </si>
+  <si>
+    <t>TestCase 50.150</t>
+  </si>
+  <si>
+    <t>TestCase 50.160</t>
+  </si>
+  <si>
+    <t>TestCase 50.170</t>
+  </si>
+  <si>
+    <t>TestCase 50.180</t>
+  </si>
+  <si>
+    <t>TestCase 50.190</t>
+  </si>
+  <si>
+    <t>TestCase 50.200</t>
+  </si>
+  <si>
+    <t>TestCase 50.210</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硬表不能设置全域</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_mod.DeleteIgnorePriorities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_mod.StrictDeleteNotIgnorePriorities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 40.180</t>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 40.190</t>
+  </si>
+  <si>
+    <t>TEST SUITE 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_mod.DeleteWithConstraintOutPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TODO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序中如何读取flow entry中的action具体数值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 40.200</t>
+  </si>
+  <si>
+    <t>flow_add.OutportIgnoredForAddModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后首次测试pass，再次运行fail，切换检验端口后可以pass</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -790,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1180,6 +1330,164 @@
       <c r="A37" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/MeshSr_OFTest.xlsx
+++ b/docs/MeshSr_OFTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack\Desktop\MeshSr\MeshSr_OFTest\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\MeshSr\MeshSr_OFTest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
   <si>
     <t>Class Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -532,6 +532,14 @@
       </rPr>
       <t>后首次测试pass，再次运行fail，切换检验端口后可以pass</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.AllWildcardMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.InPort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1244,8 +1252,8 @@
       <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>2</v>
+      <c r="C29" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>59</v>
@@ -1385,10 +1393,22 @@
       <c r="A42" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>75</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">

--- a/docs/MeshSr_OFTest.xlsx
+++ b/docs/MeshSr_OFTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="149">
   <si>
     <t>Class Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,9 +399,6 @@
     <t>TestCase 50.40</t>
   </si>
   <si>
-    <t>TestCase 50.50</t>
-  </si>
-  <si>
     <t>TestCase 50.60</t>
   </si>
   <si>
@@ -414,19 +411,10 @@
     <t>TestCase 50.90</t>
   </si>
   <si>
-    <t>TestCase 50.100</t>
-  </si>
-  <si>
-    <t>TestCase 50.110</t>
-  </si>
-  <si>
     <t>TestCase 50.120</t>
   </si>
   <si>
     <t>TestCase 50.130</t>
-  </si>
-  <si>
-    <t>TestCase 50.140</t>
   </si>
   <si>
     <t>TestCase 50.150</t>
@@ -541,6 +529,251 @@
   <si>
     <t>flow_match.InPort</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.EthSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.EthDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.EthTypeIPv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 50.50.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 50.50.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.EthTypeIPv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 50.50.3</t>
+  </si>
+  <si>
+    <t>flow_match.EthTypeARP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LLC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议不支持，unmatching列表中，llc的packetin消息不稳定，间歇性收到</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50.50 reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后测试pass，连续运行多个测试会fail</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.VlanVID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>packetin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收到不匹配的内容</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.VlanPCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.IPv4SrcSubnetMasked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.IPv4DstSubnetMasked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 50.100.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 50.100.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 50.100.3</t>
+  </si>
+  <si>
+    <t>flow_match.IPv4ProtoTCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.IPv4ProtoUDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.IPv4ProtoICMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 50.110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.IPv4Dscp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.IPv4TCPSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.IPv4TCPDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首次运行成功，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>delete all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能没有实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子网掩码大小端的问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.MatchPriorities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 60.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counters.ReceivedPackets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 60.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counters.ReceivedBytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 50.140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">no packet in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_match.L3</t>
+  </si>
+  <si>
+    <t>flow_match.L4</t>
+  </si>
+  <si>
+    <t>TestCase 60.30</t>
+  </si>
+  <si>
+    <t>TestCase 60.40</t>
+  </si>
+  <si>
+    <t>TestCase 60.50</t>
+  </si>
+  <si>
+    <t>TestCase 60.60</t>
+  </si>
+  <si>
+    <t>TestCase 60.70</t>
+  </si>
+  <si>
+    <t>TestCase 60.80</t>
   </si>
 </sst>
 </file>
@@ -948,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -960,7 +1193,7 @@
     <col min="2" max="2" width="36.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="87.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1189,8 +1422,8 @@
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>46</v>
@@ -1206,6 +1439,7 @@
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
@@ -1339,7 +1573,7 @@
         <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>2</v>
@@ -1347,46 +1581,46 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -1394,7 +1628,7 @@
         <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>2</v>
@@ -1405,7 +1639,7 @@
         <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>2</v>
@@ -1415,98 +1649,298 @@
       <c r="A44" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>78</v>
+        <v>109</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>79</v>
+        <v>110</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>80</v>
+        <v>112</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>85</v>
+        <v>121</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>87</v>
+        <v>123</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>88</v>
+        <v>127</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>91</v>
+        <v>139</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/docs/MeshSr_OFTest.xlsx
+++ b/docs/MeshSr_OFTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\MeshSr\MeshSr_OFTest\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MeshSr_OFTest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="155">
   <si>
     <t>Class Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,6 +774,30 @@
   </si>
   <si>
     <t>TestCase 60.80</t>
+  </si>
+  <si>
+    <t>TEST SUITE 60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST SUITE 70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 70.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 70.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 not support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.NoActionDrops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1181,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1882,7 +1906,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -1941,6 +1965,29 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="E79" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/docs/MeshSr_OFTest.xlsx
+++ b/docs/MeshSr_OFTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MeshSr_OFTest\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.103\Coding\MeshSr_OFTest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="203">
   <si>
     <t>Class Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,6 +797,175 @@
   </si>
   <si>
     <t>actions.NoActionDrops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 70.30</t>
+  </si>
+  <si>
+    <t>TestCase 70.40</t>
+  </si>
+  <si>
+    <t>TestCase 70.50</t>
+  </si>
+  <si>
+    <t>TestCase 70.60</t>
+  </si>
+  <si>
+    <t>TestCase 70.70</t>
+  </si>
+  <si>
+    <t>TestCase 70.80</t>
+  </si>
+  <si>
+    <t>actions.ForwardALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.ForwardController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.ForwardTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.ForwardInPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 70.90</t>
+  </si>
+  <si>
+    <t>TestCase 70.100</t>
+  </si>
+  <si>
+    <t>TestCase 70.110</t>
+  </si>
+  <si>
+    <t>TestCase 70.120</t>
+  </si>
+  <si>
+    <t>TestCase 70.130</t>
+  </si>
+  <si>
+    <t>TestCase 70.140</t>
+  </si>
+  <si>
+    <t>actions.ForwardOutputMultiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.ForwardEnqueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.SetVlanVid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.PushVlanVid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 70.150</t>
+  </si>
+  <si>
+    <t>TestCase 70.160</t>
+  </si>
+  <si>
+    <t>TestCase 70.170</t>
+  </si>
+  <si>
+    <t>TestCase 70.180</t>
+  </si>
+  <si>
+    <t>TestCase 70.190</t>
+  </si>
+  <si>
+    <t>TestCase 70.200</t>
+  </si>
+  <si>
+    <t>actions.PushVlanPcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.SetVlanPcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.PopVlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.SetEthSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 70.220</t>
+  </si>
+  <si>
+    <t>TestCase 70.230</t>
+  </si>
+  <si>
+    <t>TestCase 70.240</t>
+  </si>
+  <si>
+    <t>actions.SetEthDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.SetIPv4Src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.SetIPv4Dst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.SetIpv4Dscp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 70.210.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 70.210.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.SetIpv4ECN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.SetTCPSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.SetTCPDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 70.250</t>
+  </si>
+  <si>
+    <t>TestCase 70.260</t>
+  </si>
+  <si>
+    <t>1.3 not supported??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actions.SequentialExecution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1205,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1990,6 +2159,236 @@
         <v>153</v>
       </c>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/MeshSr_OFTest.xlsx
+++ b/docs/MeshSr_OFTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.103\Coding\MeshSr_OFTest\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.102\Coding\MeshSr_OFTest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="236">
   <si>
     <t>Class Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -968,12 +968,127 @@
     <t>actions.SequentialExecution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TEST SUITE 80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 80.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 80.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 80.30</t>
+  </si>
+  <si>
+    <t>TestCase 80.40</t>
+  </si>
+  <si>
+    <t>TestCase 80.50</t>
+  </si>
+  <si>
+    <t>TestCase 80.60</t>
+  </si>
+  <si>
+    <t>TestCase 80.70</t>
+  </si>
+  <si>
+    <t>TestCase 80.80</t>
+  </si>
+  <si>
+    <t>TestCase 80.90</t>
+  </si>
+  <si>
+    <t>TestCase 80.100</t>
+  </si>
+  <si>
+    <t>TestCase 80.110</t>
+  </si>
+  <si>
+    <t>TestCase 80.120</t>
+  </si>
+  <si>
+    <t>TestCase 80.130</t>
+  </si>
+  <si>
+    <t>TestCase 80.140</t>
+  </si>
+  <si>
+    <t>TestCase 80.150</t>
+  </si>
+  <si>
+    <t>TestCase 80.160</t>
+  </si>
+  <si>
+    <t>1.3 not support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 80.170</t>
+  </si>
+  <si>
+    <t>TestCase 80.180</t>
+  </si>
+  <si>
+    <t>TestCase 80.190</t>
+  </si>
+  <si>
+    <t>TestCase 80.200</t>
+  </si>
+  <si>
+    <t>TestCase 80.210</t>
+  </si>
+  <si>
+    <t>TestCase 80.220</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">verify the handling of fragments is consistent with the returned configuration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>???????</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase 80.230</t>
+  </si>
+  <si>
+    <t>TestCase 80.240</t>
+  </si>
+  <si>
+    <t>TestCase 80.250</t>
+  </si>
+  <si>
+    <t>TestCase 80.260</t>
+  </si>
+  <si>
+    <t>TestCase 80.270</t>
+  </si>
+  <si>
+    <t>TestCase 80.280</t>
+  </si>
+  <si>
+    <t>TestCase 80.290</t>
+  </si>
+  <si>
+    <t>TestCase 80.300</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,6 +1128,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -1374,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1385,7 +1506,7 @@
     <col min="1" max="1" width="28.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="36.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="87.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -2389,6 +2510,191 @@
         <v>200</v>
       </c>
     </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
